--- a/DragAndDrop/Assets/5.Data/Stage1_rush_pattern_excel.xlsx
+++ b/DragAndDrop/Assets/5.Data/Stage1_rush_pattern_excel.xlsx
@@ -1,23 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shingu-103\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\01.junheeStudy\Team_Project\idle\DragAndDrop\Assets\5.Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24595B8D-B5B1-4FD5-B218-AB818D860573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7920"/>
+    <workbookView xWindow="15975" yWindow="1875" windowWidth="8865" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -41,7 +53,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -364,11 +376,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -411,7 +423,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>27.25</v>
+        <v>27.5</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -433,7 +445,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>28.75</v>
+        <v>29</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -455,51 +467,51 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>31.5</v>
+        <v>30.5</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>32.25</v>
+        <v>30.75</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>33</v>
+        <v>31.5</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>33.25</v>
+        <v>32.25</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>2.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B12">
         <v>4</v>
@@ -510,21 +522,21 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>37.5</v>
+        <v>33.5</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>0.75</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>37.9</v>
+        <v>36</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -532,87 +544,87 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>38.25</v>
+        <v>36.5</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>38.65</v>
+        <v>36.75</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>0.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>39.4</v>
+        <v>37.5</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>40.15</v>
+        <v>37.9</v>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C18">
-        <v>0.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>40.9</v>
+        <v>38.65</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>41.65</v>
+        <v>39.4</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C20">
-        <v>0.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>43.1</v>
+        <v>40.15</v>
       </c>
       <c r="B21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C21">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>45</v>
+        <v>40.9</v>
       </c>
       <c r="B22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -620,18 +632,18 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>46.15</v>
+        <v>41.65</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>46.5</v>
+        <v>43.1</v>
       </c>
       <c r="B24">
         <v>6</v>
@@ -642,21 +654,21 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>46.9</v>
+        <v>45</v>
       </c>
       <c r="B25">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C25">
-        <v>0.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>47.65</v>
+        <v>46.15</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -664,12 +676,45 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
+        <v>46.5</v>
+      </c>
+      <c r="B27">
+        <v>6</v>
+      </c>
+      <c r="C27">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>46.9</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>47.65</v>
+      </c>
+      <c r="B29">
+        <v>8</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
         <v>48.4</v>
       </c>
-      <c r="B27">
+      <c r="B30">
         <v>5</v>
       </c>
-      <c r="C27">
+      <c r="C30">
         <v>0.75</v>
       </c>
     </row>

--- a/DragAndDrop/Assets/5.Data/Stage1_rush_pattern_excel.xlsx
+++ b/DragAndDrop/Assets/5.Data/Stage1_rush_pattern_excel.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\01.junheeStudy\Team_Project\idle\DragAndDrop\Assets\5.Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shingu-103\Desktop\Junhee_git\idle\DragAndDrop\Assets\5.Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24595B8D-B5B1-4FD5-B218-AB818D860573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15975" yWindow="1875" windowWidth="8865" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15975" yWindow="1875" windowWidth="8865" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -53,7 +52,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -376,11 +375,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -407,7 +406,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -423,13 +422,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>27.5</v>
+        <v>27.25</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -445,13 +444,13 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>29</v>
+        <v>28.75</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -467,13 +466,13 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>30.5</v>
+        <v>30.25</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -522,13 +521,13 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>33.5</v>
+        <v>33.25</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -544,13 +543,13 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>36.5</v>
+        <v>36.25</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -654,7 +653,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>45</v>
+        <v>43.5</v>
       </c>
       <c r="B25">
         <v>7</v>
@@ -679,7 +678,7 @@
         <v>46.5</v>
       </c>
       <c r="B27">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C27">
         <v>0.4</v>
